--- a/Data/EC/NIT-9012174050.xlsx
+++ b/Data/EC/NIT-9012174050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7A6A13-EEBB-41FF-8FCB-A6FE443750C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E797D4-8DCC-4FD2-A1C8-EC96CF5A2438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA5AFD25-D8AB-42F7-AF18-80A20EB179EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C784F889-F4EA-4B88-99A4-F463D6769863}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,43 +71,55 @@
     <t>CARLOS YHONNY PARDO POSADA</t>
   </si>
   <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2103</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
+    <t>1143407907</t>
+  </si>
+  <si>
+    <t>ROSA ISELA LIGARDO CABEZA</t>
   </si>
   <si>
     <t>1002248950</t>
@@ -116,85 +128,76 @@
     <t>ISAAC DAVID SIERRA ROBLES</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1143407907</t>
-  </si>
-  <si>
-    <t>ROSA ISELA LIGARDO CABEZA</t>
-  </si>
-  <si>
-    <t>2205</t>
+    <t>1010044398</t>
+  </si>
+  <si>
+    <t>CRISTIAN RAUL ROBLES BARRIOS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
   </si>
   <si>
     <t>1007848448</t>
   </si>
   <si>
     <t>VALENTINA RANGEL AVILA</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1010044398</t>
-  </si>
-  <si>
-    <t>CRISTIAN RAUL ROBLES BARRIOS</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -238,7 +241,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038E2F1E-E5AB-C496-65E8-2B8FBD3FD070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F02E7-737F-1CF0-9185-95C250933EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,32 +962,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FB664-9629-46D8-B558-2840835A91B5}">
-  <dimension ref="B2:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637535B-CE61-4E99-BA12-B7D8F6BE3681}">
+  <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -993,7 +996,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1004,7 +1007,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1015,7 +1018,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1026,10 +1029,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1042,8 +1045,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,15 +1061,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2361089</v>
+        <v>2453889</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1074,27 +1077,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1114,16 +1117,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24227</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1146,7 +1149,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>12114</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1169,7 +1172,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1180,10 +1183,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
         <v>908526</v>
@@ -1192,7 +1195,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1215,7 +1218,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1238,7 +1241,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1261,7 +1264,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1284,7 +1287,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1307,7 +1310,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1330,7 +1333,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1353,7 +1356,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1376,7 +1379,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1399,7 +1402,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1422,30 +1425,30 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>23162</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1447630</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1456,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1468,76 +1471,76 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>34666</v>
+        <v>24227</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
-        <v>12114</v>
+        <v>34666</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>23162</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1447630</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>40214</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
         <v>1160000</v>
@@ -1560,21 +1563,21 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F35" s="18">
-        <v>40214</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
         <v>1160000</v>
@@ -1583,7 +1586,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1606,15 +1609,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>35</v>
@@ -1629,7 +1632,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1652,18 +1655,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1675,7 +1678,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1698,18 +1701,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1721,18 +1724,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1744,7 +1747,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1767,7 +1770,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1790,18 +1793,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1813,18 +1816,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1836,7 +1839,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1859,18 +1862,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1882,7 +1885,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1905,7 +1908,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1928,18 +1931,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1951,7 +1954,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1974,21 +1977,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>40214</v>
       </c>
       <c r="G53" s="18">
         <v>1160000</v>
@@ -1997,18 +2000,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2020,18 +2023,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2043,18 +2046,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2066,18 +2069,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2089,18 +2092,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2112,18 +2115,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2135,18 +2138,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2158,18 +2161,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2181,18 +2184,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2204,18 +2207,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2227,18 +2230,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2250,18 +2253,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2273,18 +2276,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2296,18 +2299,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2319,18 +2322,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2342,18 +2345,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2365,18 +2368,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2388,57 +2391,103 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="22" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="32" t="s">
+      <c r="D71" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="24">
+        <v>40214</v>
+      </c>
+      <c r="G73" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="H78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="H76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="C79" s="32"/>
+      <c r="H79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H78:J78"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012174050.xlsx
+++ b/Data/EC/NIT-9012174050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E797D4-8DCC-4FD2-A1C8-EC96CF5A2438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA25DCB-62D5-4F03-AF43-A8EE188E5443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C784F889-F4EA-4B88-99A4-F463D6769863}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A632A70E-86AE-4027-B41C-5179AFD037B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="66">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,133 +71,136 @@
     <t>CARLOS YHONNY PARDO POSADA</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1143407907</t>
+  </si>
+  <si>
+    <t>ROSA ISELA LIGARDO CABEZA</t>
+  </si>
+  <si>
+    <t>1002248950</t>
+  </si>
+  <si>
+    <t>ISAAC DAVID SIERRA ROBLES</t>
+  </si>
+  <si>
     <t>2205</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1143407907</t>
-  </si>
-  <si>
-    <t>ROSA ISELA LIGARDO CABEZA</t>
-  </si>
-  <si>
-    <t>1002248950</t>
-  </si>
-  <si>
-    <t>ISAAC DAVID SIERRA ROBLES</t>
-  </si>
-  <si>
     <t>1010044398</t>
   </si>
   <si>
     <t>CRISTIAN RAUL ROBLES BARRIOS</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1007848448</t>
+  </si>
+  <si>
+    <t>VALENTINA RANGEL AVILA</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1007848448</t>
-  </si>
-  <si>
-    <t>VALENTINA RANGEL AVILA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -296,7 +299,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F02E7-737F-1CF0-9185-95C250933EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2036105-5521-9D9F-E37A-7B0E8715907A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637535B-CE61-4E99-BA12-B7D8F6BE3681}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC852C9-4284-4B9F-BD43-34BAA590F2E9}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +990,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1035,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1067,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2453889</v>
+        <v>2546689</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1083,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>24227</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1163,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>12114</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1183,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
         <v>908526</v>
@@ -1206,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1229,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1252,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1275,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1298,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1321,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1344,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1367,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1390,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1413,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1436,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
         <v>908526</v>
@@ -1462,7 +1465,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>12114</v>
       </c>
       <c r="G30" s="18">
         <v>908526</v>
@@ -1476,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>24227</v>
+        <v>34666</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>34666</v>
+        <v>23162</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1447630</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1522,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="18">
-        <v>23162</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1447630</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1554,7 +1557,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>40214</v>
       </c>
       <c r="G34" s="18">
         <v>1160000</v>
@@ -1568,16 +1571,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>40214</v>
       </c>
       <c r="G35" s="18">
         <v>1160000</v>
@@ -1597,7 +1600,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1614,10 +1617,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>35</v>
@@ -1660,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1689,7 +1692,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1706,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1735,7 +1738,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1752,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1781,7 +1784,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1798,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1827,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1844,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1873,7 +1876,7 @@
         <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1890,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1919,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1936,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1965,7 +1968,7 @@
         <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1982,16 +1985,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F53" s="18">
-        <v>40214</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
         <v>1160000</v>
@@ -2005,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2028,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2051,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2074,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2097,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2120,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2143,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2166,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2189,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2212,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2235,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2258,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2281,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2304,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2327,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2350,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2373,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2396,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2419,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2438,56 +2441,102 @@
       <c r="J72" s="20"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="24">
-        <v>40214</v>
-      </c>
-      <c r="G73" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
+      <c r="F73" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
